--- a/配置表/UI资源配置表.xlsx
+++ b/配置表/UI资源配置表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>String</t>
   </si>
@@ -61,10 +61,19 @@
     <t>Prefabs_ui</t>
   </si>
   <si>
-    <t>LoginPane1</t>
-  </si>
-  <si>
-    <t>UI/Prefabs_ui/LoginPane1.prefab</t>
+    <t>NoticePanel</t>
+  </si>
+  <si>
+    <t>UI/Prefabs_ui/NoticePanel.prefab</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>UI/Prefabs_ui/notice/Tab.prefab</t>
+  </si>
+  <si>
+    <t>notice</t>
   </si>
 </sst>
 </file>
@@ -74,8 +83,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -113,7 +122,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,6 +136,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -150,24 +166,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,15 +188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,8 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,6 +237,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -256,13 +265,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,163 +421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,16 +468,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -483,28 +492,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,17 +531,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,145 +573,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1059,7 +1068,7 @@
   <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1151,7 +1160,6 @@
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7"/>
       <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1162,11 +1170,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="7"/>
